--- a/partitioning.xlsx
+++ b/partitioning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100.0</c:v>
@@ -298,11 +298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2076464736"/>
-        <c:axId val="-2075219840"/>
+        <c:axId val="-2120426976"/>
+        <c:axId val="-2120424976"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-2076464736"/>
+        <c:axId val="-2120426976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,7 +344,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075219840"/>
+        <c:crossAx val="-2120424976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -352,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075219840"/>
+        <c:axId val="-2120424976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +402,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076464736"/>
+        <c:crossAx val="-2120426976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,7 +667,7 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>60.0</c:v>
@@ -690,11 +690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2045995680"/>
-        <c:axId val="-2041421104"/>
+        <c:axId val="-2119732464"/>
+        <c:axId val="-2119710096"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-2045995680"/>
+        <c:axId val="-2119732464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041421104"/>
+        <c:crossAx val="-2119710096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041421104"/>
+        <c:axId val="-2119710096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -795,7 +795,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045995680"/>
+        <c:crossAx val="-2119732464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,7 +2188,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- locations, come prima</a:t>
+            <a:t>- locations, come primax	</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2502,9 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2556,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2594,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2646,7 +2644,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
